--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D85658-C192-ED47-9137-EA9349BA2F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{EC0B2A35-1FD1-694B-89D7-5BCA1B1AF143}"/>
+    <workbookView xWindow="1005" yWindow="915" windowWidth="28245" windowHeight="17235"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,20 +100,31 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="63"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,16 +132,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,96 +494,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F5DE2A-BA47-7A4B-82C1-2109C5AD32D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDB3BA8-A4C5-E445-BAF8-9E48D214C7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="915" windowWidth="28245" windowHeight="17235"/>
+    <workbookView xWindow="9840" yWindow="4280" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,77 +20,72 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,26 +101,20 @@
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="63"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -132,38 +122,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -494,96 +462,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDB3BA8-A4C5-E445-BAF8-9E48D214C7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5ACE27-1EA1-9441-8EE1-2DC196D8B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="4280" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="2680" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,62 +30,62 @@
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,11 +93,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -128,7 +123,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5ACE27-1EA1-9441-8EE1-2DC196D8B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="2680" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="2685" windowWidth="28245" windowHeight="17235"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>actual_orders</t>
   </si>
@@ -51,9 +50,6 @@
     <t>Багульник болотный побеги 50г</t>
   </si>
   <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Шалфей листья 20х1,5г</t>
   </si>
   <si>
@@ -69,9 +65,6 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Крушина кора 20x1,5г</t>
   </si>
   <si>
@@ -79,13 +72,31 @@
   </si>
   <si>
     <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,12 +104,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,9 +126,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -457,106 +461,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,26 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
     <t>Зверобой трава 50г</t>
   </si>
   <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
     <t>Бессмертник песчаный цветки 30г</t>
   </si>
   <si>
@@ -53,9 +41,6 @@
     <t>Фп Шалфей листья 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Грудной №4 20x2,0г</t>
   </si>
   <si>
@@ -65,9 +50,6 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Толокнянка листья 20x1,5г</t>
   </si>
   <si>
@@ -90,6 +72,21 @@
   </si>
   <si>
     <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Дуб кора 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -462,13 +459,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="1" max="1" width="47.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -478,112 +477,107 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,23 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
     <t>Бессмертник песчаный цветки 30г</t>
   </si>
   <si>
     <t>Багульник болотный побеги 50г</t>
   </si>
   <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Грудной №4 20x2,0г</t>
   </si>
   <si>
@@ -56,18 +50,12 @@
     <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
   <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
     <t>Лен семена 100г</t>
   </si>
   <si>
     <t>Чистотел трава 50г</t>
   </si>
   <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Мелисса лекарственная трава 20x1,5г</t>
   </si>
   <si>
@@ -87,6 +75,21 @@
   </si>
   <si>
     <t>Фп Дуб кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Фп Пижма цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -477,17 +480,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -502,37 +505,37 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -542,12 +545,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -557,12 +560,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -572,12 +575,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC2405F-B95F-4646-BEB2-01EBCB1CEED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="2685" windowWidth="28245" windowHeight="17235"/>
+    <workbookView xWindow="9840" yWindow="2680" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
     <t>Багульник болотный побеги 50г</t>
   </si>
   <si>
@@ -50,9 +48,6 @@
     <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
   <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
     <t>Чистотел трава 50г</t>
   </si>
   <si>
@@ -65,9 +60,6 @@
     <t>Полынь горькая трава 50г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Зверобой трава 20x1,5г</t>
   </si>
   <si>
@@ -90,13 +82,19 @@
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,126 +459,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC2405F-B95F-4646-BEB2-01EBCB1CEED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="2680" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="2685" windowWidth="28245" windowHeight="17235"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,29 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
     <t>Фп Толокнянка листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
     <t>Чистотел трава 50г</t>
   </si>
   <si>
@@ -57,27 +44,15 @@
     <t>Фп Шиповник плоды 20х2,0г</t>
   </si>
   <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
   </si>
   <si>
     <t>Фп Дуб кора 20х1,5г</t>
   </si>
   <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
     <t>Кукуруза столбики с рыльцами 40г</t>
   </si>
   <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
   </si>
   <si>
@@ -88,13 +63,34 @@
   </si>
   <si>
     <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,123 +455,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,51 +32,24 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
     <t>Фп Мелисса лекарственная трава 20x1,5г</t>
   </si>
   <si>
     <t>Фп Шиповник плоды 20х2,0г</t>
   </si>
   <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Дуб кора 20х1,5г</t>
-  </si>
-  <si>
     <t>Кукуруза столбики с рыльцами 40г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
     <t>Аир корневища 75г</t>
   </si>
   <si>
     <t>Тысячелистник трава 50г</t>
   </si>
   <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
     <t>Фп Чистотел трава 20х1,5г</t>
   </si>
   <si>
@@ -84,6 +57,15 @@
   </si>
   <si>
     <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -456,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -474,100 +456,74 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,30 +32,15 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Шиповник плоды 20х2,0г</t>
   </si>
   <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
     <t>Тысячелистник трава 50г</t>
   </si>
   <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Желудочный №3 20x2,0г</t>
   </si>
   <si>
@@ -66,6 +51,42 @@
   </si>
   <si>
     <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Фп Ольха соплодия 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® с черным чаем"</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® с зеленым чаем"</t>
   </si>
 </sst>
 </file>
@@ -438,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -461,67 +482,97 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C440026-60AB-D04B-8461-9DA65DE4A862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="2685" windowWidth="28245" windowHeight="17235"/>
+    <workbookView xWindow="9840" yWindow="2680" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,76 +25,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ольха соплодия 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Фп Ольха соплодия 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
-    <t>Фп "ВердиоГаст® с черным чаем"</t>
-  </si>
-  <si>
-    <t>Фп "ВердиоГаст® с зеленым чаем"</t>
+    <t>Фп Дуб кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +126,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -458,121 +490,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C440026-60AB-D04B-8461-9DA65DE4A862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3713846D-921E-7940-81AD-8A88FDCF5A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9840" yWindow="2680" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>actual_orders</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
   </si>
   <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
@@ -491,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,7 +506,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -634,17 +631,12 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3713846D-921E-7940-81AD-8A88FDCF5A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="2680" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="2685" windowWidth="28245" windowHeight="17235"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>actual_orders</t>
   </si>
@@ -60,9 +59,6 @@
     <t>Пижма цветки 75г</t>
   </si>
   <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Ольха соплодия 20х1,5г</t>
   </si>
   <si>
@@ -84,9 +80,6 @@
     <t>Фп Чабрец трава 20x1,5 г</t>
   </si>
   <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
@@ -97,9 +90,6 @@
   </si>
   <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Лапчатка корневища 20x2,5г</t>
@@ -114,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -487,156 +477,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.95">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="15.75">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="15.75">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="15.75">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="15.75">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="15.75">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="15.75">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="15.75">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="15.75">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="15.75">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="15.75">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="15.75">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="15.75">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="15.75">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="15.75">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="15.75">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="15.75">
       <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75">
+      <c r="A25" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
     <t>Череда трава 50г</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>Мята перечная листья 50г</t>
   </si>
   <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
     <t>Ноготки цветки 50г</t>
   </si>
   <si>
@@ -62,12 +56,6 @@
     <t>Фп Ольха соплодия 20х1,5г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
   </si>
   <si>
@@ -99,6 +87,24 @@
   </si>
   <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -115,10 +121,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Aptos Narrow"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -478,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -489,132 +497,143 @@
     <col min="1" max="1" width="70.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.95">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="15.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75">
-      <c r="A19" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75">
-      <c r="A20" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
     <t>Пустырник трава 50г</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
     <t>Фп Ольха соплодия 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Береза листья 20x1,5г</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
     <t>Фп Чабрец трава 20x1,5 г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Душица трава 20x1,5г</t>
   </si>
   <si>
@@ -78,9 +66,6 @@
   </si>
   <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
     <t>Фп Дуб кора 20х1,5г</t>
@@ -111,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +112,11 @@
       <name val="Aptos Narrow"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -486,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -504,132 +494,107 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,44 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
     <t>Мята перечная листья 50г</t>
   </si>
   <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Фп Ольха соплодия 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Чабрец трава 20x1,5 г</t>
   </si>
   <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Пустырник трава 20x1,5г</t>
   </si>
   <si>
@@ -71,9 +44,6 @@
     <t>Фп Дуб кора 20х1,5г</t>
   </si>
   <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
   </si>
   <si>
@@ -90,6 +60,24 @@
   </si>
   <si>
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -476,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -499,102 +487,82 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,29 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Дуб кора 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Крапива листья 20x1,5г</t>
   </si>
   <si>
@@ -59,15 +41,9 @@
     <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
     <t>Дуба кора 75г</t>
   </si>
   <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
     <t>Брусника листья 50г</t>
   </si>
   <si>
@@ -78,13 +54,46 @@
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Фиточай "Укроп" (Ригла)</t>
+  </si>
+  <si>
+    <t>"Лён обыкновенный" Ригла</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Мята" (Ригла)</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Шиповник" (Ригла)</t>
+  </si>
+  <si>
+    <t>Фп "Фитосбор №1" (Ригла)</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Ромашковый" Ригла</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,16 +115,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,16 +144,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -464,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -481,88 +522,103 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,20 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
   <si>
@@ -59,34 +50,28 @@
     <t>Боярышник плоды 75г</t>
   </si>
   <si>
-    <t>Фиточай "Укроп" (Ригла)</t>
-  </si>
-  <si>
-    <t>"Лён обыкновенный" Ригла</t>
-  </si>
-  <si>
     <t>Мать-и-мачеха листья 35г</t>
   </si>
   <si>
     <t>Фп Мелисса лекарственная трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Фиточай "Мята" (Ригла)</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Шиповник" (Ригла)</t>
-  </si>
-  <si>
-    <t>Фп "Фитосбор №1" (Ригла)</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Ромашковый" Ригла</t>
-  </si>
-  <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -505,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -523,52 +508,52 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -578,47 +563,22 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,15 +32,6 @@
     <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
   <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
     <t>Фп Хвощ полевой трава 20х1,5г</t>
   </si>
   <si>
@@ -53,9 +44,6 @@
     <t>Мать-и-мачеха листья 35г</t>
   </si>
   <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
@@ -72,6 +60,30 @@
   </si>
   <si>
     <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фиточай "Укроп" (Ригла)</t>
+  </si>
+  <si>
+    <t>"Лён обыкновенный" Ригла</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Шиповник" (Ригла)</t>
+  </si>
+  <si>
+    <t>Фп "Фитосбор №1" (Ригла)</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Ромашковый" Ригла</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -490,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -508,77 +520,97 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,23 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
     <t>Мать-и-мачеха листья 35г</t>
   </si>
   <si>
@@ -56,9 +47,6 @@
     <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Подорожник листья 20x1,5г</t>
   </si>
   <si>
@@ -72,9 +60,6 @@
   </si>
   <si>
     <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Шиповник" (Ригла)</t>
   </si>
   <si>
     <t>Фп "Фитосбор №1" (Ригла)</t>
@@ -505,7 +490,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -520,98 +505,88 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,43 +32,31 @@
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
     <t>Валериана корневища с корнями 50г</t>
   </si>
   <si>
     <t>Чага (березовый гриб) 50г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фиточай "Укроп" (Ригла)</t>
-  </si>
-  <si>
-    <t>"Лён обыкновенный" Ригла</t>
-  </si>
-  <si>
     <t>Чистотел трава 50г</t>
   </si>
   <si>
     <t>Бессмертник песчаный цветки 30г</t>
   </si>
   <si>
-    <t>Фп "Фитосбор №1" (Ригла)</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Ромашковый" Ригла</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -487,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -505,88 +493,58 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
     <t>Чага (березовый гриб) 50г</t>
   </si>
   <si>
@@ -57,6 +54,24 @@
   </si>
   <si>
     <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Фитосбор №1" (Ригла)</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Ромашковый" Ригла</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -475,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -493,12 +508,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -508,41 +523,66 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>actual_orders</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -490,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -518,71 +536,101 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
     <t>Бессмертник песчаный цветки 30г</t>
   </si>
   <si>
@@ -47,16 +41,10 @@
     <t>Крапива листья 50г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Сб. Элекасол 20x2,0г</t>
   </si>
   <si>
     <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп "Фитосбор №1" (Ригла)</t>
   </si>
   <si>
     <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
@@ -511,12 +499,12 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75">
@@ -531,108 +519,98 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,28 +32,16 @@
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
     <t>Ромашка цветки вн 50г</t>
   </si>
   <si>
     <t>Крапива листья 50г</t>
   </si>
   <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Ромашковый" Ригла</t>
   </si>
   <si>
     <t>Фп Толокнянка листья 20x1,5г</t>
@@ -496,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -514,88 +502,82 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2"/>
@@ -605,12 +587,6 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>actual_orders</t>
   </si>
@@ -35,18 +35,9 @@
     <t>Ромашка цветки вн 50г</t>
   </si>
   <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
     <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
@@ -59,13 +50,22 @@
     <t>Полынь горькая трава 50г</t>
   </si>
   <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -507,68 +507,66 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,35 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Ромашка цветки вн 50г</t>
   </si>
   <si>
     <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
     <t>Лен семена 100г</t>
   </si>
   <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Аир корневища 75г</t>
   </si>
   <si>
@@ -66,6 +51,18 @@
   </si>
   <si>
     <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -487,7 +484,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -502,27 +499,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -537,33 +534,31 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>actual_orders</t>
   </si>
@@ -38,15 +38,9 @@
     <t>Лен семена 100г</t>
   </si>
   <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
     <t>Спорыш трава 50г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
   </si>
   <si>
@@ -63,6 +57,33 @@
   </si>
   <si>
     <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -481,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -509,7 +530,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -519,67 +540,78 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
-    </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,53 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
     <t>Укроп пахучий плоды 50г</t>
   </si>
   <si>
     <t>Ноготки цветки 50г</t>
   </si>
   <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
     <t>Тысячелистник трава 50г</t>
   </si>
   <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Крапива листья 20x1,5г</t>
   </si>
   <si>
@@ -80,10 +47,46 @@
     <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Фитосбор №2" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -525,42 +528,42 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -580,37 +583,42 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,23 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
     <t>Тысячелистник трава 50г</t>
   </si>
   <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
@@ -53,9 +44,6 @@
     <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
   </si>
   <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Крушина кора 20x1,5г</t>
   </si>
   <si>
@@ -86,7 +74,37 @@
     <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
   <si>
-    <t>Фп "Фитосбор №2" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Дуб кора 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -505,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -523,102 +541,132 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,50 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
     <t>Крушина кора 50г</t>
   </si>
   <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
     <t>Пижма цветки 75г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Сб. Желудочный №3 20x2,0г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Хвощ полевой трава 20х1,5г</t>
   </si>
   <si>
@@ -105,6 +75,12 @@
   </si>
   <si>
     <t>Фп Дуб кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -523,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -541,133 +517,111 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,24 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
     <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
   <si>
     <t>Лен семена 100г</t>
@@ -499,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -517,12 +505,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -532,42 +520,42 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -577,33 +565,25 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2"/>
@@ -616,12 +596,6 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
     <t>Боярышник плоды 75г</t>
   </si>
   <si>
@@ -44,9 +38,6 @@
     <t>Береза почки 50г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Липа цветки 20x1,5г</t>
   </si>
   <si>
@@ -62,13 +53,19 @@
     <t>Фп Зверобой трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Дуб кора 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
 </sst>
 </file>
@@ -490,7 +487,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -505,42 +502,42 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -555,23 +552,21 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -29,9 +29,6 @@
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
     <t>Чага (березовый гриб) 50г</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
@@ -66,6 +60,12 @@
   </si>
   <si>
     <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -512,17 +512,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -537,7 +537,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -547,12 +547,12 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -29,9 +29,6 @@
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
     <t>Береза почки 50г</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>Фп Мелисса лекарственная трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Зверобой трава 20x1,5г</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
     <t>Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
@@ -66,6 +57,15 @@
   </si>
   <si>
     <t>Фп Бадан корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -507,17 +507,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -537,7 +537,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -547,12 +547,12 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,20 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Мелисса лекарственная трава 20x1,5г</t>
   </si>
   <si>
@@ -50,9 +41,6 @@
     <t>Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
     <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
   <si>
@@ -65,7 +53,16 @@
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -487,7 +484,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -502,7 +499,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -512,58 +509,56 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -29,24 +29,15 @@
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Зверобой трава 20x1,5г</t>
   </si>
   <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
     <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
     <t>Зверобой трава 50г</t>
   </si>
   <si>
@@ -63,6 +54,15 @@
   </si>
   <si>
     <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -504,57 +504,57 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1">

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
@@ -63,6 +60,12 @@
   </si>
   <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -499,66 +502,68 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>actual_orders</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
@@ -487,7 +484,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -502,12 +499,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -517,53 +514,51 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,35 +24,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп Пустырник трава 20x1,5г</t>
   </si>
   <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
     <t>Укроп пахучий плоды 50г</t>
   </si>
   <si>
@@ -63,6 +51,12 @@
   </si>
   <si>
     <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
   </si>
 </sst>
 </file>
@@ -484,7 +478,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -499,12 +493,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -514,48 +508,44 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,15 +32,9 @@
     <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Укроп пахучий плоды 50г</t>
   </si>
   <si>
@@ -57,6 +51,15 @@
   </si>
   <si>
     <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -493,12 +496,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -508,32 +511,32 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -542,7 +545,9 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,18 +32,6 @@
     <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
     <t>Фп Брусника листья 20х1,5г</t>
   </si>
   <si>
@@ -56,10 +44,28 @@
     <t>Полынь горькая трава 50г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -481,12 +487,12 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75">
@@ -496,64 +502,68 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,38 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
     <t>Валериана корневища с корнями 50г</t>
   </si>
   <si>
     <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
   </si>
   <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
   </si>
   <si>
@@ -66,6 +48,27 @@
   </si>
   <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -502,71 +505,73 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2"/>
@@ -588,9 +593,6 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,29 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
@@ -69,6 +54,15 @@
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
   </si>
 </sst>
 </file>
@@ -487,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -505,73 +499,69 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2"/>
@@ -590,9 +580,6 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>actual_orders</t>
   </si>
@@ -35,18 +35,9 @@
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
     <t>Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Можжевельник плоды 50г</t>
   </si>
   <si>
@@ -63,6 +54,12 @@
   </si>
   <si>
     <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -484,7 +481,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -514,22 +511,22 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -539,23 +536,21 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>actual_orders</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Ромашка цветки вн 50г</t>
   </si>
   <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
     <t>Фп Чабрец трава 20x1,5 г</t>
   </si>
   <si>
@@ -60,6 +57,27 @@
   </si>
   <si>
     <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -481,7 +499,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -511,64 +529,78 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
-    </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>actual_orders</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
     <t>Можжевельник плоды 50г</t>
@@ -499,7 +496,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -519,12 +516,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -539,12 +536,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -554,32 +551,32 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -589,18 +586,16 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
   </si>
   <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
@@ -493,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -511,67 +505,67 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -580,28 +574,10 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>actual_orders</t>
   </si>
@@ -69,6 +69,24 @@
   </si>
   <si>
     <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>"Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
+  </si>
+  <si>
+    <t>Фиточай "Укроп" (ТМ "Будь здоров!")(БАД) 50г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Дуб кора 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -146,11 +164,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -487,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -525,59 +546,88 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>actual_orders</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Ромашка цветки вн 50г</t>
   </si>
   <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
     <t>Фп Шалфей листья 20х1,5г</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
@@ -511,7 +505,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -531,27 +525,27 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -561,73 +555,69 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
+      <c r="A17" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
+      <c r="A19" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>actual_orders</t>
   </si>
@@ -38,18 +38,12 @@
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
     <t>Фп Шалфей листья 20х1,5г</t>
   </si>
   <si>
     <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
   </si>
   <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
     <t>Аир корневища 75г</t>
   </si>
   <si>
@@ -81,6 +75,15 @@
   </si>
   <si>
     <t>Фп Дуб кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -520,37 +523,37 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -560,12 +563,12 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -575,46 +578,48 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,21 +32,12 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
   </si>
   <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
     <t>Мята перечная листья 50г</t>
   </si>
   <si>
@@ -84,6 +75,12 @@
   </si>
   <si>
     <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -508,7 +505,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -523,103 +520,101 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
+      <c r="A15" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
+      <c r="A17" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>actual_orders</t>
   </si>
@@ -38,18 +38,12 @@
     <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
   </si>
   <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп Толокнянка листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
     <t>"Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
   </si>
   <si>
     <t>Фп Дуб кора 20х1,5г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
   </si>
   <si>
     <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
@@ -505,7 +496,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -520,98 +511,92 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
+      <c r="A13" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
+      <c r="A15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>actual_orders</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Толокнянка листья 20x1,5г</t>
   </si>
   <si>
@@ -72,6 +66,12 @@
   </si>
   <si>
     <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -511,86 +511,88 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
+      <c r="A13" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,54 +24,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>"Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
-  </si>
-  <si>
-    <t>Фиточай "Укроп" (ТМ "Будь здоров!")(БАД) 50г</t>
-  </si>
-  <si>
     <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
   </si>
   <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Дуб кора 20х1,5г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
     <t>Фп Сб. Грудной №4 20x2,0г</t>
   </si>
   <si>
     <t>Багульник болотный побеги 50г</t>
   </si>
   <si>
-    <t>Фп Липа цветки 20x1,5г</t>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Девясил корневища и корни 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -149,14 +152,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -511,57 +511,57 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -570,13 +570,13 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
+      <c r="A14" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -586,12 +586,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,21 +32,9 @@
     <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
     <t>Ромашка цветки вн 50г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
@@ -65,16 +53,25 @@
     <t>Фп Девясил корневища и корни 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп Сенна листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -496,7 +493,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -511,17 +508,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -531,68 +528,66 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>actual_orders</t>
   </si>
@@ -35,30 +35,12 @@
     <t>Ромашка цветки вн 50г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Девясил корневища и корни 20х1,5г</t>
   </si>
   <si>
     <t>Фп Сенна листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Чабрец трава 50г</t>
   </si>
   <si>
@@ -72,6 +54,18 @@
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
   </si>
 </sst>
 </file>
@@ -493,7 +487,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -513,78 +507,76 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,35 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Фп Девясил корневища и корни 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Чабрец трава 50г</t>
   </si>
   <si>
     <t>Девясил корневища и корни 50г</t>
   </si>
   <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
@@ -66,6 +48,27 @@
   </si>
   <si>
     <t>Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -502,77 +505,77 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
     <t>Девясил корневища и корни 50г</t>
   </si>
   <si>
@@ -69,6 +66,24 @@
   </si>
   <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -490,7 +505,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -510,12 +525,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -525,73 +540,83 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>actual_orders</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
   </si>
   <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
@@ -505,7 +499,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -540,17 +534,17 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -560,32 +554,32 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -600,23 +594,19 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,60 +24,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -496,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -514,102 +490,78 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>actual_orders</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Чистотел трава 50г</t>
   </si>
   <si>
@@ -54,6 +51,18 @@
   </si>
   <si>
     <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
 </sst>
 </file>
@@ -475,7 +484,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -490,57 +499,63 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,37 +32,34 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
   <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
     <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
   </si>
   <si>
     <t>Дуба кора 75г</t>
   </si>
   <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -484,7 +481,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -509,7 +506,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -519,43 +516,41 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,34 +32,46 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
   </si>
   <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Крапива листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Фп "Фитосбор №2" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Мята" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп "Фитосбор №1" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Дуб кора 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -481,7 +493,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -496,7 +508,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -511,7 +523,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -526,43 +538,53 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,39 +32,12 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
   <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Фп "Фитосбор №2" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Мята" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп "Фитосбор №1" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
-  </si>
-  <si>
     <t>Фп Брусника листья 20х1,5г</t>
   </si>
   <si>
@@ -72,6 +45,15 @@
   </si>
   <si>
     <t>Фп Дуб кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
   </si>
 </sst>
 </file>
@@ -493,7 +475,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -508,17 +490,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -528,63 +510,49 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>actual_orders</t>
   </si>
@@ -38,22 +38,25 @@
     <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Грудной №4 20x2,0г</t>
   </si>
   <si>
     <t>Фп Дуб кора 20х1,5г</t>
   </si>
   <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
     <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -490,17 +493,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -510,7 +513,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -520,24 +523,28 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>actual_orders</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Грудной №4 20x2,0г</t>
   </si>
   <si>
@@ -57,6 +54,12 @@
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -493,61 +496,63 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,21 +32,12 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Сб. Грудной №4 20x2,0г</t>
   </si>
   <si>
     <t>Фп Дуб кора 20х1,5г</t>
   </si>
   <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
     <t>Липа цветки 35г</t>
   </si>
   <si>
@@ -60,6 +51,15 @@
   </si>
   <si>
     <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -137,11 +137,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -481,7 +484,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -496,17 +499,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -516,22 +519,22 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -541,18 +544,16 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>actual_orders</t>
   </si>
@@ -60,6 +60,36 @@
   </si>
   <si>
     <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -481,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -519,62 +549,93 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
+      <c r="A9" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,25 +32,13 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Дуб кора 20х1,5г</t>
   </si>
   <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
     <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
   </si>
   <si>
     <t>Сенна листья 50г</t>
@@ -514,7 +502,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -534,108 +522,100 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
+      <c r="A11" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>6</v>
+      <c r="A19" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,36 +32,15 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Дуб кора 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
     <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
     <t>Солодка корни 50г</t>
   </si>
   <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
   </si>
   <si>
@@ -71,13 +50,34 @@
     <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
   </si>
   <si>
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -517,57 +517,57 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
+      <c r="A7" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -582,31 +582,29 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
+      <c r="A18" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>actual_orders</t>
   </si>
@@ -35,18 +35,6 @@
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
@@ -78,6 +66,24 @@
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -517,57 +523,57 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -582,29 +588,33 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
+      <c r="A18" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>actual_orders</t>
   </si>
@@ -44,18 +44,12 @@
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
   </si>
   <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
     <t>Бессмертник песчаный цветки 30г</t>
   </si>
   <si>
     <t>Шалфей листья 50г</t>
   </si>
   <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Пустырник трава 20x1,5г</t>
   </si>
   <si>
@@ -84,6 +78,21 @@
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -508,7 +517,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -533,97 +542,103 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
-    </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>actual_orders</t>
   </si>
@@ -35,33 +35,15 @@
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
   </si>
   <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
     <t>Фп Пустырник трава 20x1,5г</t>
   </si>
   <si>
     <t>Фп Зверобой трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Аир корневища 75г</t>
   </si>
   <si>
@@ -93,6 +75,9 @@
   </si>
   <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
   </si>
 </sst>
 </file>
@@ -517,7 +502,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -542,37 +527,37 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -582,32 +567,32 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -616,29 +601,19 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>actual_orders</t>
   </si>
@@ -35,30 +35,12 @@
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
     <t>Лен семена 100г</t>
   </si>
   <si>
     <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
   </si>
   <si>
@@ -78,6 +60,15 @@
   </si>
   <si>
     <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -502,7 +493,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -517,88 +508,82 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -35,40 +35,40 @@
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
   </si>
   <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -518,17 +518,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
+      <c r="A5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -538,42 +538,42 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,51 +24,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -493,7 +508,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -513,83 +528,93 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
+      <c r="A5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,15 +32,6 @@
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
     <t>Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
@@ -56,15 +47,9 @@
     <t>Фп Ноготки цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
   </si>
   <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
     <t>Ноготки цветки 50г</t>
   </si>
   <si>
@@ -84,6 +69,24 @@
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -161,14 +164,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -508,7 +508,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -523,27 +523,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -553,47 +553,47 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -603,24 +603,26 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,41 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
     <t>Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Брусника листья 20х1,5г</t>
   </si>
   <si>
@@ -87,6 +60,21 @@
   </si>
   <si>
     <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -508,7 +496,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -523,57 +511,57 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -583,43 +571,35 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,57 +24,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
     <t>Фп Крапива листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Дуб кора 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -496,7 +475,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -511,83 +490,73 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>actual_orders</t>
   </si>
@@ -54,6 +54,27 @@
   </si>
   <si>
     <t>Фп Дуб кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -475,7 +496,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -500,69 +521,83 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
-    </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Ромашка цветки вн 50г</t>
   </si>
   <si>
@@ -75,6 +69,15 @@
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -511,67 +514,67 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -581,23 +584,21 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -29,9 +29,6 @@
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
     <t>Ромашка цветки вн 50г</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
   </si>
 </sst>
 </file>
@@ -514,87 +514,87 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,26 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
     <t>Фп Мята перечная листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Дуб кора 20х1,5г</t>
   </si>
   <si>
@@ -78,6 +66,12 @@
   </si>
   <si>
     <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -499,7 +493,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -514,88 +508,84 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,20 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Дуб кора 20х1,5г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
     <t>Череда трава 50г</t>
   </si>
   <si>
@@ -68,10 +59,16 @@
     <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -493,7 +490,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -508,78 +505,76 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,26 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
@@ -53,9 +38,6 @@
     <t>Лен семена 100г</t>
   </si>
   <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
   </si>
   <si>
@@ -69,6 +51,18 @@
   </si>
   <si>
     <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г</t>
   </si>
 </sst>
 </file>
@@ -490,7 +484,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -505,73 +499,69 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,21 +32,12 @@
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
     <t>Лен семена 100г</t>
   </si>
   <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20х2,0г</t>
   </si>
   <si>
@@ -63,6 +54,12 @@
   </si>
   <si>
     <t>Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -484,7 +481,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -504,58 +501,56 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,26 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20х2,0г</t>
   </si>
   <si>
-    <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
-  </si>
-  <si>
     <t>Боярышник плоды 75г</t>
   </si>
   <si>
@@ -60,6 +48,36 @@
   </si>
   <si>
     <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -481,7 +499,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -501,71 +519,83 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,27 +32,15 @@
     <t>Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20х2,0г</t>
   </si>
   <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
     <t>Фп Пустырник трава 20x1,5г</t>
   </si>
   <si>
     <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Крушина кора 20x1,5г</t>
   </si>
   <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
     <t>Пижма цветки 75г</t>
   </si>
   <si>
@@ -78,6 +66,12 @@
   </si>
   <si>
     <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
   </si>
 </sst>
 </file>
@@ -499,7 +493,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -514,62 +508,62 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -579,23 +573,19 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,36 +32,9 @@
     <t>Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20х2,0г</t>
   </si>
   <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Хвощ полевой трава 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сенна листья 20x1,5г</t>
   </si>
   <si>
@@ -72,6 +45,45 @@
   </si>
   <si>
     <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Мята" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Фитосбор №2" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Фп Пижма цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Дуб кора 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -493,7 +505,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -508,22 +520,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -533,65 +545,73 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,35 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Чистотел трава 20х1,5г</t>
   </si>
   <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
     <t>Укроп пахучий плоды 50г</t>
   </si>
   <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
@@ -84,6 +66,27 @@
   </si>
   <si>
     <t>Фп Дуб кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -520,72 +523,72 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -600,21 +603,23 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,48 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Крапива листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Мята" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп "Фитосбор №2" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
     <t>Фп Пижма цветки 20х1,5г</t>
   </si>
   <si>
     <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Дуб кора 20х1,5г</t>
   </si>
   <si>
     <t>Дуба кора 75г</t>
@@ -508,7 +481,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -523,27 +496,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -553,73 +526,55 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
   </si>
   <si>
@@ -47,9 +41,6 @@
     <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
   </si>
   <si>
@@ -59,7 +50,31 @@
     <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -481,7 +496,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -496,73 +511,83 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
-    </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -29,18 +29,6 @@
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
   </si>
   <si>
@@ -50,15 +38,9 @@
     <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
     <t>Мать-и-мачеха листья 35г</t>
   </si>
   <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
@@ -75,6 +57,24 @@
   </si>
   <si>
     <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -521,22 +521,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -551,42 +551,42 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,23 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
@@ -75,6 +66,9 @@
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -496,7 +490,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -511,7 +505,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -521,37 +515,37 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -571,23 +565,19 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,29 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
     <t>Фп Тысячелистник трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Хвощ полевой трава 20х1,5г</t>
   </si>
   <si>
@@ -69,6 +57,9 @@
   </si>
   <si>
     <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
   </si>
 </sst>
 </file>
@@ -490,7 +481,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -505,17 +496,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -525,17 +516,17 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -545,33 +536,27 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,27 +32,12 @@
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
     <t>Фп Мята перечная листья 20x1,5г</t>
   </si>
   <si>
     <t>Чага (березовый гриб) 50г</t>
   </si>
   <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
@@ -60,6 +45,33 @@
   </si>
   <si>
     <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -481,7 +493,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -496,12 +508,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -511,22 +523,22 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -536,30 +548,38 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,54 +24,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
+    <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Дуб кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
   </si>
   <si>
     <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
-    <t>Фп Крушина кора 20x1,5г</t>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -490,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -508,52 +535,52 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -563,44 +590,68 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,36 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
     <t>Крапива листья 50г</t>
   </si>
   <si>
     <t>Солодка корни 50г</t>
   </si>
   <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
   </si>
   <si>
     <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
   </si>
   <si>
     <t>Фп Крушина кора 20x1,5г</t>
@@ -520,7 +505,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -535,123 +520,113 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,26 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
     <t>Солодка корни 50г</t>
   </si>
   <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Крапива листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
     <t>Багульник болотный побеги 50г</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
   </si>
   <si>
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -505,7 +493,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -525,7 +513,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -535,83 +523,75 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,26 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Дуб кора 20х1,5г</t>
-  </si>
-  <si>
     <t>Аир корневища 75г</t>
   </si>
   <si>
@@ -69,9 +57,6 @@
   </si>
   <si>
     <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -493,7 +478,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -508,7 +493,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -518,68 +503,58 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,15 +32,6 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
     <t>Тысячелистник трава 50г</t>
   </si>
   <si>
@@ -57,6 +48,18 @@
   </si>
   <si>
     <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -508,22 +511,22 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -542,7 +545,9 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,42 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
   </si>
 </sst>
 </file>
@@ -481,7 +469,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -496,27 +484,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -526,28 +514,20 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,30 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
-  </si>
-  <si>
     <t>Фп Сб. Грудной №4 20x2,0г</t>
   </si>
   <si>
     <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -484,41 +487,43 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,23 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
     <t>Мята перечная листья 50г</t>
   </si>
   <si>
@@ -51,6 +39,48 @@
   </si>
   <si>
     <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>"Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -472,7 +502,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -487,12 +517,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -502,58 +532,78 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
-    </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,63 +24,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
+    <t>"Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Брусника листья 20х1,5г</t>
   </si>
   <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
     <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>"Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -499,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -522,106 +561,153 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,50 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>"Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Череда трава 20х1,5г</t>
   </si>
   <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
     <t>Фп Крапива листья 20x1,5г</t>
   </si>
   <si>
@@ -89,9 +56,6 @@
     <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Пустырник трава 20x1,5г</t>
   </si>
   <si>
@@ -120,6 +84,21 @@
   </si>
   <si>
     <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
   </si>
 </sst>
 </file>
@@ -538,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -556,7 +535,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -571,7 +550,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -586,128 +565,117 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,23 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
     <t>Фп Крапива листья 20x1,5г</t>
   </si>
   <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
     <t>Зверобой трава 50г</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
     <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
   </si>
   <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
     <t>Бессмертник песчаный цветки 30г</t>
   </si>
   <si>
@@ -99,6 +90,9 @@
   </si>
   <si>
     <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -520,7 +514,7 @@
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -535,123 +529,119 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,27 +32,6 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
     <t>Брусника листья 50г</t>
   </si>
   <si>
@@ -62,21 +41,9 @@
     <t>Крапива листья 50г</t>
   </si>
   <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Фп Мята перечная листья 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
     <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
   </si>
   <si>
@@ -86,13 +53,19 @@
     <t>Полынь горькая трава 50г</t>
   </si>
   <si>
-    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
   </si>
   <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
   </si>
 </sst>
 </file>
@@ -514,7 +487,7 @@
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -529,113 +502,95 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>actual_orders</t>
   </si>
@@ -32,18 +32,6 @@
     <t>Фп Ромашка цветки 20x1,5г</t>
   </si>
   <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
     <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
   </si>
   <si>
@@ -54,9 +42,6 @@
   </si>
   <si>
     <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
   </si>
   <si>
     <t>Фп Сб. Бруснивер 20x2,0г</t>
@@ -487,7 +472,7 @@
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -517,53 +502,43 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -24,33 +24,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г</t>
   </si>
   <si>
     <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
   </si>
   <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -469,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -487,64 +508,78 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2"/>
@@ -593,9 +628,6 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/actual_orders_2stage.xlsx
+++ b/data/actual_orders_2stage.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,54 +24,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>actual_orders</t>
   </si>
   <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
   </si>
   <si>
     <t>Фп Боярышник плоды 20х3,0г</t>
   </si>
   <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
   </si>
   <si>
     <t>Укроп пахучий плоды 50г</t>
   </si>
   <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
   </si>
   <si>
     <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
   </si>
   <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+    <t>Фп Почечный чай листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -490,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -508,99 +517,113 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2"/>
@@ -628,6 +651,9 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
